--- a/static/data/fitness.xlsx
+++ b/static/data/fitness.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\github\genderEquality\static\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>lat</t>
   </si>
@@ -58,12 +63,12 @@
     <t>Fitness Ninja</t>
   </si>
   <si>
+    <t>LPS Athletic Centre</t>
+  </si>
+  <si>
     <t>Glendon Athletic Club</t>
   </si>
   <si>
-    <t>LPS Athletic Centre</t>
-  </si>
-  <si>
     <t>FitSole</t>
   </si>
   <si>
@@ -88,6 +93,9 @@
     <t>In-Tech High Performance Training</t>
   </si>
   <si>
+    <t>HHC Home Fitness, Exercise Equipment Rental &amp; Personal Trainers</t>
+  </si>
+  <si>
     <t>Mayfair Clubs</t>
   </si>
   <si>
@@ -121,6 +129,9 @@
     <t>Crossfit Vortex</t>
   </si>
   <si>
+    <t>Orangetheory Fitness North York</t>
+  </si>
+  <si>
     <t>Train with Nat</t>
   </si>
   <si>
@@ -137,19 +148,13 @@
   </si>
   <si>
     <t>GoodLife Fitness Vaughan Weston and Northview</t>
-  </si>
-  <si>
-    <t>True North Climbing</t>
-  </si>
-  <si>
-    <t>GoodLife Fitness North York Northridge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +217,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -258,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,9 +303,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,6 +338,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,14 +514,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,15 +537,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>43.7722113</v>
+        <v>43.772211300000002</v>
       </c>
       <c r="C2">
-        <v>-79.49921979999999</v>
+        <v>-79.499219799999992</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -537,15 +554,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>43.776605</v>
+        <v>43.776605000000004</v>
       </c>
       <c r="C3">
-        <v>-79.506924</v>
+        <v>-79.506923999999998</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -554,15 +571,15 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>43.7744899</v>
+        <v>43.774489899999999</v>
       </c>
       <c r="C4">
-        <v>-79.509738</v>
+        <v>-79.509737999999999</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -571,15 +588,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>43.7852062</v>
+        <v>43.785206199999998</v>
       </c>
       <c r="C5">
-        <v>-79.4747885</v>
+        <v>-79.474788500000003</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -588,15 +605,15 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>43.7692803</v>
+        <v>43.769280299999998</v>
       </c>
       <c r="C6">
-        <v>-79.4686729</v>
+        <v>-79.468672900000001</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -605,15 +622,15 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>43.78499799999999</v>
+        <v>43.784997999999987</v>
       </c>
       <c r="C7">
-        <v>-79.470906</v>
+        <v>-79.470905999999999</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -622,15 +639,15 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>43.77991189999999</v>
+        <v>43.779911899999988</v>
       </c>
       <c r="C8">
-        <v>-79.47010179999999</v>
+        <v>-79.470101799999995</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -639,15 +656,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>43.7743322</v>
+        <v>43.774332200000003</v>
       </c>
       <c r="C9">
-        <v>-79.5117132</v>
+        <v>-79.511713200000003</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -656,15 +673,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>43.758532</v>
+        <v>43.758532000000002</v>
       </c>
       <c r="C10">
-        <v>-79.477543</v>
+        <v>-79.477542999999997</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -673,15 +690,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>43.779647</v>
+        <v>43.779646999999997</v>
       </c>
       <c r="C11">
-        <v>-79.4896864</v>
+        <v>-79.489686399999997</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -690,49 +707,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>43.7288465</v>
+        <v>43.772069999999999</v>
       </c>
       <c r="C12">
-        <v>-79.37677169999999</v>
+        <v>-79.478571000000002</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>43.77207</v>
+        <v>43.728846500000003</v>
       </c>
       <c r="C13">
-        <v>-79.478571</v>
+        <v>-79.376771699999992</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>43.7632339</v>
+        <v>43.763233900000003</v>
       </c>
       <c r="C14">
-        <v>-79.4991241</v>
+        <v>-79.499124100000003</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -741,15 +758,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>43.7764866</v>
+        <v>43.776486599999998</v>
       </c>
       <c r="C15">
-        <v>-79.4739379</v>
+        <v>-79.473937899999996</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -758,15 +775,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>43.7765061</v>
+        <v>43.776506099999999</v>
       </c>
       <c r="C16">
-        <v>-79.47381009999999</v>
+        <v>-79.473810099999994</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -775,12 +792,12 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>43.7722979</v>
+        <v>43.772297899999998</v>
       </c>
       <c r="C17">
         <v>-79.472493</v>
@@ -792,15 +809,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>43.757916</v>
+        <v>43.757916000000002</v>
       </c>
       <c r="C18">
-        <v>-79.47499569999999</v>
+        <v>-79.474995699999994</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -809,15 +826,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>43.7566729</v>
+        <v>43.756672899999998</v>
       </c>
       <c r="C19">
-        <v>-79.46615659999999</v>
+        <v>-79.466156599999991</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -826,15 +843,15 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>43.7649059</v>
+        <v>43.764905900000002</v>
       </c>
       <c r="C20">
-        <v>-79.47724099999999</v>
+        <v>-79.477240999999992</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -843,7 +860,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -851,7 +868,7 @@
         <v>43.766914</v>
       </c>
       <c r="C21">
-        <v>-79.47288999999999</v>
+        <v>-79.472889999999992</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
@@ -860,49 +877,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>43.7571399</v>
+        <v>43.756999999999998</v>
       </c>
       <c r="C22">
-        <v>-79.4742033</v>
+        <v>-79.474818999999997</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
       </c>
       <c r="E22">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>43.7558658</v>
+        <v>43.757139899999999</v>
       </c>
       <c r="C23">
-        <v>-79.4769771</v>
+        <v>-79.474203299999999</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>43.78325520000001</v>
+        <v>43.755865800000002</v>
       </c>
       <c r="C24">
-        <v>-79.4710424</v>
+        <v>-79.476977099999999</v>
       </c>
       <c r="D24" t="s">
         <v>26</v>
@@ -911,168 +928,168 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>43.758479</v>
+        <v>43.783255200000013</v>
       </c>
       <c r="C25">
-        <v>-79.48115399999999</v>
+        <v>-79.471042400000002</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
       </c>
       <c r="E25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>43.7527991</v>
+        <v>43.758479000000001</v>
       </c>
       <c r="C26">
-        <v>-79.46547989999999</v>
+        <v>-79.481153999999989</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
       </c>
       <c r="E26">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>43.757313</v>
+        <v>43.752799099999997</v>
       </c>
       <c r="C27">
-        <v>-79.51996199999999</v>
+        <v>-79.465479899999991</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
       </c>
       <c r="E27">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>43.7797494</v>
+        <v>43.757313000000003</v>
       </c>
       <c r="C28">
-        <v>-79.48711899999999</v>
+        <v>-79.519961999999992</v>
       </c>
       <c r="D28" t="s">
         <v>30</v>
       </c>
       <c r="E28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>43.7643506</v>
+        <v>43.7797494</v>
       </c>
       <c r="C29">
-        <v>-79.4824287</v>
+        <v>-79.487118999999993</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
       </c>
       <c r="E29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>43.7560171</v>
+        <v>43.7643506</v>
       </c>
       <c r="C30">
-        <v>-79.51455399999999</v>
+        <v>-79.4824287</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E30">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>43.77472789999999</v>
+        <v>43.756017100000001</v>
       </c>
       <c r="C31">
-        <v>-79.513796</v>
+        <v>-79.51455399999999</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>43.7648511</v>
+        <v>43.774727899999988</v>
       </c>
       <c r="C32">
-        <v>-79.4699565</v>
+        <v>-79.513795999999999</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
       </c>
       <c r="E32">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>43.8144119</v>
+        <v>43.764851100000001</v>
       </c>
       <c r="C33">
-        <v>-79.5311006</v>
+        <v>-79.469956499999995</v>
       </c>
       <c r="D33" t="s">
         <v>34</v>
       </c>
       <c r="E33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>43.7806677</v>
+        <v>43.814411900000003</v>
       </c>
       <c r="C34">
-        <v>-79.469837</v>
+        <v>-79.531100600000002</v>
       </c>
       <c r="D34" t="s">
         <v>35</v>
@@ -1081,464 +1098,184 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>43.7985008</v>
+        <v>43.786322400000003</v>
       </c>
       <c r="C35">
-        <v>-79.50128669999999</v>
+        <v>-79.468894300000002</v>
       </c>
       <c r="D35" t="s">
         <v>36</v>
       </c>
       <c r="E35">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>43.789621</v>
+        <v>43.780667700000002</v>
       </c>
       <c r="C36">
-        <v>-79.5353346</v>
+        <v>-79.469836999999998</v>
       </c>
       <c r="D36" t="s">
         <v>37</v>
       </c>
       <c r="E36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>43.8024101</v>
+        <v>43.798500799999999</v>
       </c>
       <c r="C37">
-        <v>-79.497029</v>
+        <v>-79.501286699999994</v>
       </c>
       <c r="D37" t="s">
         <v>38</v>
       </c>
       <c r="E37">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>43.7832664</v>
+        <v>43.789620999999997</v>
       </c>
       <c r="C38">
-        <v>-79.4897663</v>
+        <v>-79.535334599999999</v>
       </c>
       <c r="D38" t="s">
         <v>39</v>
       </c>
       <c r="E38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>43.7906509</v>
+        <v>43.802410100000003</v>
       </c>
       <c r="C39">
-        <v>-79.54518830000001</v>
+        <v>-79.497028999999998</v>
       </c>
       <c r="D39" t="s">
         <v>40</v>
       </c>
       <c r="E39">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>43.7453603</v>
+        <v>43.783266400000002</v>
       </c>
       <c r="C40">
-        <v>-79.47440519999999</v>
+        <v>-79.489766299999999</v>
       </c>
       <c r="D40" t="s">
         <v>41</v>
       </c>
       <c r="E40">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>43.7800579</v>
+        <v>43.790650900000003</v>
       </c>
       <c r="C41">
-        <v>-79.416465</v>
+        <v>-79.545188300000007</v>
       </c>
       <c r="D41" t="s">
         <v>42</v>
       </c>
       <c r="E41">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>43.7571399</v>
-      </c>
-      <c r="C42">
-        <v>-79.4742033</v>
-      </c>
-      <c r="D42" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>43.7558658</v>
-      </c>
-      <c r="C43">
-        <v>-79.4769771</v>
-      </c>
-      <c r="D43" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>43.78325520000001</v>
-      </c>
-      <c r="C44">
-        <v>-79.4710424</v>
-      </c>
-      <c r="D44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>43.758479</v>
-      </c>
-      <c r="C45">
-        <v>-79.48115399999999</v>
-      </c>
-      <c r="D45" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>43.7527991</v>
-      </c>
-      <c r="C46">
-        <v>-79.46547989999999</v>
-      </c>
-      <c r="D46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>43.757313</v>
-      </c>
-      <c r="C47">
-        <v>-79.51996199999999</v>
-      </c>
-      <c r="D47" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>43.7797494</v>
-      </c>
-      <c r="C48">
-        <v>-79.48711899999999</v>
-      </c>
-      <c r="D48" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>43.7643506</v>
-      </c>
-      <c r="C49">
-        <v>-79.4824287</v>
-      </c>
-      <c r="D49" t="s">
-        <v>31</v>
-      </c>
-      <c r="E49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>43.7560171</v>
-      </c>
-      <c r="C50">
-        <v>-79.51455399999999</v>
-      </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>43.77472789999999</v>
-      </c>
-      <c r="C51">
-        <v>-79.513796</v>
-      </c>
-      <c r="D51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>43.7648511</v>
-      </c>
-      <c r="C52">
-        <v>-79.4699565</v>
-      </c>
-      <c r="D52" t="s">
-        <v>33</v>
-      </c>
-      <c r="E52">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>43.8144119</v>
-      </c>
-      <c r="C53">
-        <v>-79.5311006</v>
-      </c>
-      <c r="D53" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>43.7806677</v>
-      </c>
-      <c r="C54">
-        <v>-79.469837</v>
-      </c>
-      <c r="D54" t="s">
-        <v>35</v>
-      </c>
-      <c r="E54">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>43.7985008</v>
-      </c>
-      <c r="C55">
-        <v>-79.50128669999999</v>
-      </c>
-      <c r="D55" t="s">
-        <v>36</v>
-      </c>
-      <c r="E55">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>43.789621</v>
-      </c>
-      <c r="C56">
-        <v>-79.5353346</v>
-      </c>
-      <c r="D56" t="s">
-        <v>37</v>
-      </c>
-      <c r="E56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>43.8024101</v>
-      </c>
-      <c r="C57">
-        <v>-79.497029</v>
-      </c>
-      <c r="D57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>43.7832664</v>
-      </c>
-      <c r="C58">
-        <v>-79.4897663</v>
-      </c>
-      <c r="D58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>43.7906509</v>
-      </c>
-      <c r="C59">
-        <v>-79.54518830000001</v>
-      </c>
-      <c r="D59" t="s">
-        <v>40</v>
-      </c>
-      <c r="E59">
         <v>3.6</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>43.7453603</v>
-      </c>
-      <c r="C60">
-        <v>-79.47440519999999</v>
-      </c>
-      <c r="D60" t="s">
-        <v>41</v>
-      </c>
-      <c r="E60">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>43.7800579</v>
-      </c>
-      <c r="C61">
-        <v>-79.416465</v>
-      </c>
-      <c r="D61" t="s">
-        <v>42</v>
-      </c>
-      <c r="E61">
-        <v>3.4</v>
-      </c>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
